--- a/output/CodeSystem-summary-report-codes.xlsx
+++ b/output/CodeSystem-summary-report-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T12:50:49+02:00</t>
+    <t>2025-10-01T12:03:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
